--- a/biology/Médecine/Institut_Friedrich-Loeffler/Institut_Friedrich-Loeffler.xlsx
+++ b/biology/Médecine/Institut_Friedrich-Loeffler/Institut_Friedrich-Loeffler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut Friedrich-Loeffler (FLI) est le principal organisme fédéral allemand de recherche sur la santé animale. Il est l'autorité fédérale indépendante hiérarchiquement la plus élevée, sous tutelle du ministère de l'agriculture, de l'alimentation et de la protection des consommateurs.
 Son domaine de compétence s'étend aux maladies infectieuses des animaux d’élevage.
